--- a/Parcoursup Dictionnaire de donnees.xlsx
+++ b/Parcoursup Dictionnaire de donnees.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldebe\Documents\_bootcamp_Fullstack_dafs-ft-15\13_projets_post_bootcamp\2026_01_Parcoursup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F66CAE-4F0E-4FFB-AA65-D65687F8ED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DF648-3D89-48CD-B827-0D8E1DAC908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cartographie des formations" sheetId="2" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="voeux" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cartographie des formations'!$A$1:$C$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil2!$A$1:$A$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="205">
   <si>
     <t>annee</t>
   </si>
@@ -209,68 +208,470 @@
     <t>GTI   Groupe de Traitement des Inscriptions</t>
   </si>
   <si>
-    <t>'etab_uai':'Identifiant Etablissement ',</t>
-  </si>
-  <si>
-    <t>'etab_nom':'nom de l établissement',</t>
-  </si>
-  <si>
-    <t>'tc':'Type d établissement',</t>
-  </si>
-  <si>
-    <t>'tf':'Type de formation',</t>
-  </si>
-  <si>
-    <t>'nm':'Nom de la formation',</t>
-  </si>
-  <si>
-    <t>'fl':'Mentions Spécialités',</t>
-  </si>
-  <si>
-    <t>'app':'Apprentissage',</t>
-  </si>
-  <si>
-    <t>'int':'Internat',</t>
-  </si>
-  <si>
-    <t>'amg':'Aménagement',</t>
-  </si>
-  <si>
-    <t>'region':'Région',</t>
-  </si>
-  <si>
-    <t>'departement':'Département',</t>
-  </si>
-  <si>
-    <t>'commune':'Commune',</t>
-  </si>
-  <si>
-    <t>'fiche':'Lien vers la fiche formation',</t>
-  </si>
-  <si>
-    <t>'dataviz':'Lien vers les données statistiques',</t>
-  </si>
-  <si>
-    <t>'etab_url':'Site internet de l étabilissement',</t>
-  </si>
-  <si>
-    <t>'nmc':'Nom court de la formation',</t>
-  </si>
-  <si>
-    <t>'gta':'GTA   Gestion des Désistements en Phase d’Admission',</t>
-  </si>
-  <si>
-    <t>'gti':'GTI   Groupe de Traitement des Inscriptions',</t>
-  </si>
-  <si>
-    <t>'rnd':'Rang du dernier candidat appelé'</t>
+    <t>session</t>
+  </si>
+  <si>
+    <t>cod_uai</t>
+  </si>
+  <si>
+    <t>g_ea_lib_vx</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>dep_lib</t>
+  </si>
+  <si>
+    <t>region_etab_aff</t>
+  </si>
+  <si>
+    <t>acad_mies</t>
+  </si>
+  <si>
+    <t>fili</t>
+  </si>
+  <si>
+    <t>form_lib_voe_acc</t>
+  </si>
+  <si>
+    <t>regr_forma</t>
+  </si>
+  <si>
+    <t>fil_lib_voe_acc</t>
+  </si>
+  <si>
+    <t>detail_forma</t>
+  </si>
+  <si>
+    <t>lien_form_psup</t>
+  </si>
+  <si>
+    <t>g_olocalisation_des_formations</t>
+  </si>
+  <si>
+    <t>capa_fin</t>
+  </si>
+  <si>
+    <t>voe_tot</t>
+  </si>
+  <si>
+    <t>voe_tot_f</t>
+  </si>
+  <si>
+    <t>nb_voe_pp</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_internat</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_bg</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_bg_brs</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_bt</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_bt_brs</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_bp</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_bp_brs</t>
+  </si>
+  <si>
+    <t>nb_voe_pp_at</t>
+  </si>
+  <si>
+    <t>nb_voe_pc</t>
+  </si>
+  <si>
+    <t>nb_voe_pc_bg</t>
+  </si>
+  <si>
+    <t>nb_voe_pc_bt</t>
+  </si>
+  <si>
+    <t>nb_voe_pc_bp</t>
+  </si>
+  <si>
+    <t>nb_voe_pc_at</t>
+  </si>
+  <si>
+    <t>nb_cla_pp</t>
+  </si>
+  <si>
+    <t>nb_cla_pc</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_internat</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_pasinternat</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_bg</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_bg_brs</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_bt</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_bt_brs</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_bp</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_bp_brs</t>
+  </si>
+  <si>
+    <t>nb_cla_pp_at</t>
+  </si>
+  <si>
+    <t>prop_tot</t>
+  </si>
+  <si>
+    <t>rang_der_max</t>
+  </si>
+  <si>
+    <t>acc_tot</t>
+  </si>
+  <si>
+    <t>acc_tot_f</t>
+  </si>
+  <si>
+    <t>acc_pp</t>
+  </si>
+  <si>
+    <t>acc_pc</t>
+  </si>
+  <si>
+    <t>acc_internat</t>
+  </si>
+  <si>
+    <t>acc_brs</t>
+  </si>
+  <si>
+    <t>acc_neobac</t>
+  </si>
+  <si>
+    <t>acc_bg</t>
+  </si>
+  <si>
+    <t>acc_bt</t>
+  </si>
+  <si>
+    <t>acc_bp</t>
+  </si>
+  <si>
+    <t>acc_at</t>
+  </si>
+  <si>
+    <t>acc_mention_nonrenseignee</t>
+  </si>
+  <si>
+    <t>acc_sansmention</t>
+  </si>
+  <si>
+    <t>acc_ab</t>
+  </si>
+  <si>
+    <t>acc_b</t>
+  </si>
+  <si>
+    <t>acc_tb</t>
+  </si>
+  <si>
+    <t>acc_bg_mention</t>
+  </si>
+  <si>
+    <t>acc_bt_mention</t>
+  </si>
+  <si>
+    <t>acc_bp_mention</t>
+  </si>
+  <si>
+    <t>acc_term</t>
+  </si>
+  <si>
+    <t>acc_term_f</t>
+  </si>
+  <si>
+    <t>acc_aca_orig</t>
+  </si>
+  <si>
+    <t>acc_aca_orig_idf</t>
+  </si>
+  <si>
+    <t>pct_f</t>
+  </si>
+  <si>
+    <t>pct_aca_orig</t>
+  </si>
+  <si>
+    <t>pct_aca_orig_idf</t>
+  </si>
+  <si>
+    <t>pct_etab_orig</t>
+  </si>
+  <si>
+    <t>pct_bours</t>
+  </si>
+  <si>
+    <t>pct_neobac</t>
+  </si>
+  <si>
+    <t>pct_mention_nonrenseignee</t>
+  </si>
+  <si>
+    <t>pct_sansmention</t>
+  </si>
+  <si>
+    <t>pct_ab</t>
+  </si>
+  <si>
+    <t>pct_b</t>
+  </si>
+  <si>
+    <t>pct_tb</t>
+  </si>
+  <si>
+    <t>pct_bg</t>
+  </si>
+  <si>
+    <t>pct_bg_mention</t>
+  </si>
+  <si>
+    <t>pct_bt</t>
+  </si>
+  <si>
+    <t>pct_bt_mention</t>
+  </si>
+  <si>
+    <t>pct_bp</t>
+  </si>
+  <si>
+    <t>pct_bp_mention</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>contrat_etab</t>
+  </si>
+  <si>
+    <t>acc_debutpp</t>
+  </si>
+  <si>
+    <t>acc_datebac</t>
+  </si>
+  <si>
+    <t>acc_finpp</t>
+  </si>
+  <si>
+    <t>pct_acc_debutpp</t>
+  </si>
+  <si>
+    <t>pct_acc_datebac</t>
+  </si>
+  <si>
+    <t>pct_acc_finpp</t>
+  </si>
+  <si>
+    <t>select_form</t>
+  </si>
+  <si>
+    <t>lib_comp_voe_ins</t>
+  </si>
+  <si>
+    <t>prop_tot_bg</t>
+  </si>
+  <si>
+    <t>prop_tot_bg_brs</t>
+  </si>
+  <si>
+    <t>prop_tot_bt</t>
+  </si>
+  <si>
+    <t>prop_tot_bt_brs</t>
+  </si>
+  <si>
+    <t>prop_tot_bp</t>
+  </si>
+  <si>
+    <t>prop_tot_bp_brs</t>
+  </si>
+  <si>
+    <t>prop_tot_at</t>
+  </si>
+  <si>
+    <t>lib_grp1</t>
+  </si>
+  <si>
+    <t>ran_grp1</t>
+  </si>
+  <si>
+    <t>lib_grp2</t>
+  </si>
+  <si>
+    <t>ran_grp2</t>
+  </si>
+  <si>
+    <t>lib_grp3</t>
+  </si>
+  <si>
+    <t>ran_grp3</t>
+  </si>
+  <si>
+    <t>lib_grp4</t>
+  </si>
+  <si>
+    <t>ran_grp4</t>
+  </si>
+  <si>
+    <t>lib_grp5</t>
+  </si>
+  <si>
+    <t>ran_grp5</t>
+  </si>
+  <si>
+    <t>taux_adm_psup</t>
+  </si>
+  <si>
+    <t>taux_adm_psup_pro</t>
+  </si>
+  <si>
+    <t>taux_adm_psup_gen</t>
+  </si>
+  <si>
+    <t>taux_adm_psup_techno</t>
+  </si>
+  <si>
+    <t>cod_aff_form</t>
+  </si>
+  <si>
+    <t>ville_etab</t>
+  </si>
+  <si>
+    <t>lib_for_voe_ins</t>
+  </si>
+  <si>
+    <t>detail_forma2</t>
+  </si>
+  <si>
+    <t>acc_tbf</t>
+  </si>
+  <si>
+    <t>pct_tbf</t>
+  </si>
+  <si>
+    <t>list_com</t>
+  </si>
+  <si>
+    <t>taux_acces_ens</t>
+  </si>
+  <si>
+    <t>part_acces_gen</t>
+  </si>
+  <si>
+    <t>part_acces_tec</t>
+  </si>
+  <si>
+    <t>part_acces_pro</t>
+  </si>
+  <si>
+    <t>1_universités</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numéro Département </t>
+  </si>
+  <si>
+    <t>Académie</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>0755976N</t>
+  </si>
+  <si>
+    <t>Université Paris Cité</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Ile-de-France</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Licence - Sciences - technologies - santé</t>
+  </si>
+  <si>
+    <t>Parcours d'Accès Spécifique Santé (PASS)</t>
+  </si>
+  <si>
+    <t>https://dossierappel.parcoursup.fr/Candidats/public/fiches/afficherFicheFormation?g_ta_cod=28097&amp;typeBac=0&amp;originePc=0</t>
+  </si>
+  <si>
+    <t>b'\x01\x01\x00\x00\x00\r\xe0-\x90\xa0\xb8\x02@\xa2b\x9c\xbf\tmH@'</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>formation non sélective</t>
+  </si>
+  <si>
+    <t>Université Paris Cité - Licence - Parcours d'Accès Spécifique Santé (PASS)</t>
+  </si>
+  <si>
+    <t>Tous les candidats</t>
+  </si>
+  <si>
+    <t>6208</t>
+  </si>
+  <si>
+    <t>28097</t>
+  </si>
+  <si>
+    <t>Paris  6e  Arrondissement</t>
+  </si>
+  <si>
+    <t>Licence - Parcours d'Accès Spécifique Santé (PASS)</t>
+  </si>
+  <si>
+    <t>Liste d'appel propre à cette formation</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,13 +683,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -305,7 +699,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -357,21 +757,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E448FB1B-83FE-4241-9B21-F1114181609F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -688,14 +1089,14 @@
     <col min="3" max="3" width="42.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -728,7 +1129,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E26" si="0">"'"&amp;A4&amp;"':"&amp;"'"&amp;B4&amp;"',"</f>
+        <f t="shared" ref="E4:E22" si="0">"'"&amp;A4&amp;"':"&amp;"'"&amp;B4&amp;"',"</f>
         <v>'etab_nom':'nom de l établissement',</v>
       </c>
     </row>
@@ -972,7 +1373,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -980,7 +1381,7 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1006,116 +1407,1280 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D823B73-DFDE-4CDF-96E2-E163961C93F8}">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E927B7-B969-4A6A-BE8A-48EAA86AC440}">
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" customWidth="1"/>
+    <col min="4" max="4" width="25.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9"/>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B6" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B8" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B10" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B12" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B15" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B16" s="9">
+        <v>140</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B17" s="9">
+        <v>9893</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B18" s="9">
+        <v>6969</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B19" s="9">
+        <v>9893</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="9">
+        <v>7407</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1323</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9">
+        <v>217</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="9">
+        <v>75</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="9">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="9">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2169</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="9">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="9">
+        <v>9849</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="9">
+        <v>7407</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1323</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="9">
+        <v>217</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="9">
+        <v>75</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="9">
+        <v>100</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="9">
+        <v>34</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2125</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1400</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="9">
+        <v>137</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="9">
+        <v>104</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="9">
+        <v>137</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="9">
+        <v>0</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="9">
+        <v>24</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="9">
+        <v>121</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="9">
+        <v>115</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="9">
+        <v>6</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="9">
+        <v>0</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="9">
+        <v>16</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="9">
+        <v>0</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="9">
+        <v>7</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="9">
+        <v>28</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="9">
+        <v>56</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="9">
+        <v>28</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="9">
+        <v>108</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="9">
+        <v>6</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="9">
+        <v>0</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="9">
+        <v>40</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="9">
+        <v>104</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="9">
+        <v>76</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="9">
+        <v>33</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="9">
+        <v>86</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="9">
+        <v>0</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="9">
+        <v>20</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="9">
+        <v>88</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="9">
+        <v>0</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="9">
+        <v>6</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="9">
+        <v>23</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="9">
+        <v>46</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="9">
+        <v>23</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="9">
+        <v>95</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="9">
+        <v>89</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="9">
+        <v>5</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="9">
+        <v>5</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="9">
+        <v>0</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="9">
+        <v>0</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="9">
+        <v>1</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="9">
+        <v>38</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="9">
+        <v>116</v>
+      </c>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="9">
+        <v>1</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="9">
+        <v>28</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="9">
+        <v>85</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="9">
+        <v>1242</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="9">
+        <v>213</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="9">
+        <v>20</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="9">
+        <v>11</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="9">
+        <v>0</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="9">
+        <v>0</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="9">
+        <v>138</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="9">
+        <v>2</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" s="9">
+        <v>2</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A129" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A20" xr:uid="{5D823B73-DFDE-4CDF-96E2-E163961C93F8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parcoursup Dictionnaire de donnees.xlsx
+++ b/Parcoursup Dictionnaire de donnees.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldebe\Documents\_bootcamp_Fullstack_dafs-ft-15\13_projets_post_bootcamp\2026_01_Parcoursup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DF648-3D89-48CD-B827-0D8E1DAC908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D286EB-2AE8-42AF-8E07-AF62614A90A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cartographie des formations" sheetId="2" r:id="rId1"/>
     <sheet name="voeux" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cartographie des formations'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">voeux!$A$1:$E$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="451">
   <si>
     <t>annee</t>
   </si>
@@ -665,6 +667,760 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Filière de formation détaillée</t>
+  </si>
+  <si>
+    <t>Filière de formation</t>
+  </si>
+  <si>
+    <t>Régime de la formation</t>
+  </si>
+  <si>
+    <t>Détails sur la formation</t>
+  </si>
+  <si>
+    <t>Lien vers la fiche de la formation sur Parcoursup</t>
+  </si>
+  <si>
+    <t>Localisation géographique des formations</t>
+  </si>
+  <si>
+    <t>Nombre total de vœux confirmés</t>
+  </si>
+  <si>
+    <t>Nombre total de vœux confirmés par des filles</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale par des bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale par des bacheliers généraux boursiers</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale par des bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale par des bacheliers technologiques boursiers</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale par des bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale par des bacheliers professionnels boursiers</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale en apprentissage</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase complémentaire</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase complémentaire par des bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase complémentaire par des bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase complémentaire par des bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase complémentaire en apprentissage</t>
+  </si>
+  <si>
+    <t>Pourcentage de filles parmi les acceptations</t>
+  </si>
+  <si>
+    <t>Tri des données</t>
+  </si>
+  <si>
+    <t>Sélectivité de la formation</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour les bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour les bacheliers généraux boursiers</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour les bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour les bacheliers technologiques boursiers</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour les bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour les bacheliers professionnels boursiers</t>
+  </si>
+  <si>
+    <t>Rang du dernier candidat appelé dans le groupe 1</t>
+  </si>
+  <si>
+    <t>Libellé du groupe 2</t>
+  </si>
+  <si>
+    <t>Rang du dernier candidat appelé dans le groupe 2</t>
+  </si>
+  <si>
+    <t>Libellé du groupe 3</t>
+  </si>
+  <si>
+    <t>Rang du dernier candidat appelé dans le groupe 3</t>
+  </si>
+  <si>
+    <t>Libellé du groupe 4</t>
+  </si>
+  <si>
+    <t>Rang du dernier candidat appelé dans le groupe 4</t>
+  </si>
+  <si>
+    <t>Libellé du groupe 5</t>
+  </si>
+  <si>
+    <t>Rang du dernier candidat appelé dans le groupe 5</t>
+  </si>
+  <si>
+    <t>Code affectation de la formation</t>
+  </si>
+  <si>
+    <t>Détails supplémentaires sur la formation</t>
+  </si>
+  <si>
+    <t>Identifiant unique de l'établissement dans le référentiel "Paysage"</t>
+  </si>
+  <si>
+    <t>Identifiant unique de la composante dans le référentiel "Paysage"</t>
+  </si>
+  <si>
+    <t>Code unique de la formation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAI (Unité Administrative Immatriculée) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libellé du groupe 1 </t>
+  </si>
+  <si>
+    <t>exemple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définition :
+La liste d'appel est une liste classée des candidats qui ont formulé un vœu pour une formation donnée. Les candidats sont classés en fonction de critères définis par chaque établissement (notes, dossier, etc.).
+Fonctionnement :
+Les candidats sont classés par ordre de priorité selon les critères de la formation.
+Les formations appellent les candidats un par un, en commençant par le premier de la liste, jusqu'à ce que toutes les places disponibles soient pourvues.
+Comment fonctionne la liste d'appel ?
+Classement des candidats :
+Chaque formation établit un classement des candidats en fonction de leurs dossiers (notes, appréciations, etc.).
+Ce classement est spécifique à chaque formation et peut varier d'une formation à l'autre.
+Propositions d'admission :
+Les candidats les mieux classés reçoivent une proposition d'admission en premier.
+Si un candidat accepte la proposition, il est admis et une place est occupée.
+Si un candidat refuse ou ne répond pas, la proposition est transmise au candidat suivant sur la liste.
+Mise à jour dynamique :
+La liste d'appel est mise à jour en temps réel en fonction des réponses des candidats (acceptation, refus, désistement).
+Les candidats peuvent voir leur position dans la liste d'appel sur leur dossier Parcoursup.
+</t>
+  </si>
+  <si>
+    <t>A rapatrier dans table dimension etablissements</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>A supprimer</t>
+  </si>
+  <si>
+    <t>A supprimer de cette table</t>
+  </si>
+  <si>
+    <t>'session':'annee',</t>
+  </si>
+  <si>
+    <t>'cod_uai':'Identifiant Etablissement ',</t>
+  </si>
+  <si>
+    <t>'acad_mies':'Académie',</t>
+  </si>
+  <si>
+    <t>'fili':'Filière de formation',</t>
+  </si>
+  <si>
+    <t>'form_lib_voe_acc':'Libellé de la formation (tel qu'affiché aux candidats)',</t>
+  </si>
+  <si>
+    <t>'regr_forma':'Régime de la formation',</t>
+  </si>
+  <si>
+    <t>'fil_lib_voe_acc':'Libellé de la filière (tel qu'affiché aux candidats)',</t>
+  </si>
+  <si>
+    <t>'detail_forma':'Détails sur la formation',</t>
+  </si>
+  <si>
+    <t>'capa_fin':'Capacité d'accueil finale de la formation',</t>
+  </si>
+  <si>
+    <t>'voe_tot':'Nombre total de vœux confirmés',</t>
+  </si>
+  <si>
+    <t>'voe_tot_f':'Nombre total de vœux confirmés par des filles',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp':'Nombre de vœux confirmés en phase principale',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_internat':'Nombre de vœux confirmés en phase principale pour l'internat',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_bg':'Nombre de vœux confirmés en phase principale par des bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_bg_brs':'Nombre de vœux confirmés en phase principale par des bacheliers généraux boursiers',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_bt':'Nombre de vœux confirmés en phase principale par des bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_bt_brs':'Nombre de vœux confirmés en phase principale par des bacheliers technologiques boursiers',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_bp':'Nombre de vœux confirmés en phase principale par des bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_bp_brs':'Nombre de vœux confirmés en phase principale par des bacheliers professionnels boursiers',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pp_at':'Nombre de vœux confirmés en phase principale en apprentissage',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pc':'Nombre de vœux confirmés en phase complémentaire',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pc_bg':'Nombre de vœux confirmés en phase complémentaire par des bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pc_bt':'Nombre de vœux confirmés en phase complémentaire par des bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pc_bp':'Nombre de vœux confirmés en phase complémentaire par des bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'nb_voe_pc_at':'Nombre de vœux confirmés en phase complémentaire en apprentissage',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp':'Nombre de candidats en liste d'appel en phase principale',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pc':'Nombre de candidats en liste d'appel en phase complémentaire',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_internat':'Nombre de candidats en liste d'appel en phase principale pour l'internat',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_pasinternat':'Nombre de candidats en liste d'appel en phase principale sans internat',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_bg':'Nombre de candidats en liste d'appel en phase principale parmi les bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_bg_brs':'Nombre de candidats en liste d'appel en phase principale parmi les bacheliers généraux boursiers',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_bt':'Nombre de candidats en liste d'appel en phase principale parmi les bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_bt_brs':'Nombre de candidats en liste d'appel en phase principale parmi les bacheliers technologiques boursiers',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_bp':'Nombre de candidats en liste d'appel en phase principale parmi les bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_bp_brs':'Nombre de candidats en liste d'appel en phase principale parmi les bacheliers professionnels boursiers',</t>
+  </si>
+  <si>
+    <t>'nb_cla_pp_at':'Nombre de candidats en liste d'appel en phase principale en apprentissage',</t>
+  </si>
+  <si>
+    <t>'prop_tot':'Nombre total de propositions d'admission',</t>
+  </si>
+  <si>
+    <t>'rang_der_max':'Rang du dernier candidat appelé',</t>
+  </si>
+  <si>
+    <t>'acc_tot':'Nombre total d'acceptations',</t>
+  </si>
+  <si>
+    <t>'acc_tot_f':'Nombre total d'acceptations par des filles',</t>
+  </si>
+  <si>
+    <t>'acc_pp':'Nombre d'acceptations en phase principale',</t>
+  </si>
+  <si>
+    <t>'acc_pc':'Nombre d'acceptations en phase complémentaire',</t>
+  </si>
+  <si>
+    <t>'acc_internat':'Nombre d'acceptations pour l'internat',</t>
+  </si>
+  <si>
+    <t>'acc_brs':'Nombre d'acceptations par des boursiers',</t>
+  </si>
+  <si>
+    <t>'acc_neobac':'Nombre d'acceptations par des néo-bacheliers',</t>
+  </si>
+  <si>
+    <t>'acc_bg':'Nombre d'acceptations par des bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'acc_bt':'Nombre d'acceptations par des bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'acc_bp':'Nombre d'acceptations par des bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'acc_at':'Nombre d'acceptations en apprentissage',</t>
+  </si>
+  <si>
+    <t>'acc_mention_nonrenseignee':'Nombre d'acceptations avec mention non renseignée',</t>
+  </si>
+  <si>
+    <t>'acc_sansmention':'Nombre d'acceptations sans mention',</t>
+  </si>
+  <si>
+    <t>'acc_ab':'Nombre d'acceptations avec mention Assez Bien',</t>
+  </si>
+  <si>
+    <t>'acc_b':'Nombre d'acceptations avec mention Bien',</t>
+  </si>
+  <si>
+    <t>'acc_tb':'Nombre d'acceptations avec mention Très Bien',</t>
+  </si>
+  <si>
+    <t>'acc_bg_mention':'Nombre d'acceptations avec mention parmi les bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'acc_bt_mention':'Nombre d'acceptations avec mention parmi les bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'acc_bp_mention':'Nombre d'acceptations avec mention parmi les bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'acc_term':'Nombre d'acceptations parmi les terminales',</t>
+  </si>
+  <si>
+    <t>'acc_term_f':'Nombre d'acceptations parmi les terminales filles',</t>
+  </si>
+  <si>
+    <t>'acc_aca_orig':'Nombre d'acceptations par académie d'origine',</t>
+  </si>
+  <si>
+    <t>'acc_aca_orig_idf':'Nombre d'acceptations par académie d'origine en Île-de-France',</t>
+  </si>
+  <si>
+    <t>'pct_f':'Pourcentage de filles parmi les acceptations',</t>
+  </si>
+  <si>
+    <t>'pct_aca_orig':'Pourcentage d'acceptations par académie d'origine',</t>
+  </si>
+  <si>
+    <t>'pct_aca_orig_idf':'Pourcentage d'acceptations par académie d'origine en Île-de-France',</t>
+  </si>
+  <si>
+    <t>'pct_etab_orig':'Pourcentage d'acceptations par établissement d'origine',</t>
+  </si>
+  <si>
+    <t>'pct_bours':'Pourcentage d'acceptations par des boursiers',</t>
+  </si>
+  <si>
+    <t>'pct_neobac':'Pourcentage d'acceptations par des néo-bacheliers',</t>
+  </si>
+  <si>
+    <t>'pct_mention_nonrenseignee':'Pourcentage d'acceptations avec mention non renseignée',</t>
+  </si>
+  <si>
+    <t>'pct_sansmention':'Pourcentage d'acceptations sans mention',</t>
+  </si>
+  <si>
+    <t>'pct_ab':'Pourcentage d'acceptations avec mention Assez Bien',</t>
+  </si>
+  <si>
+    <t>'pct_b':'Pourcentage d'acceptations avec mention Bien',</t>
+  </si>
+  <si>
+    <t>'pct_tb':'Pourcentage d'acceptations avec mention Très Bien',</t>
+  </si>
+  <si>
+    <t>'pct_bg':'Pourcentage d'acceptations parmi les bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'pct_bg_mention':'Pourcentage d'acceptations avec mention parmi les bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'pct_bt':'Pourcentage d'acceptations parmi les bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'pct_bt_mention':'Pourcentage d'acceptations avec mention parmi les bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'pct_bp':'Pourcentage d'acceptations parmi les bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'pct_bp_mention':'Pourcentage d'acceptations avec mention parmi les bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'tri':'Tri des données',</t>
+  </si>
+  <si>
+    <t>'contrat_etab':'Type d établissement',</t>
+  </si>
+  <si>
+    <t>'acc_debutpp':'Nombre d'acceptations en début de phase principale',</t>
+  </si>
+  <si>
+    <t>'acc_datebac':'Nombre d'acceptations à la date du bac',</t>
+  </si>
+  <si>
+    <t>'acc_finpp':'Nombre d'acceptations en fin de phase principale',</t>
+  </si>
+  <si>
+    <t>'pct_acc_debutpp':'Pourcentage d'acceptations en début de phase principale',</t>
+  </si>
+  <si>
+    <t>'pct_acc_datebac':'Pourcentage d'acceptations à la date du bac',</t>
+  </si>
+  <si>
+    <t>'pct_acc_finpp':'Pourcentage d'acceptations en fin de phase principale',</t>
+  </si>
+  <si>
+    <t>'select_form':'Sélectivité de la formation',</t>
+  </si>
+  <si>
+    <t>'lib_comp_voe_ins':'Filière de formation détaillée',</t>
+  </si>
+  <si>
+    <t>'prop_tot_bg':'Proportion totale de propositions pour les bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'prop_tot_bg_brs':'Proportion totale de propositions pour les bacheliers généraux boursiers',</t>
+  </si>
+  <si>
+    <t>'prop_tot_bt':'Proportion totale de propositions pour les bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'prop_tot_bt_brs':'Proportion totale de propositions pour les bacheliers technologiques boursiers',</t>
+  </si>
+  <si>
+    <t>'prop_tot_bp':'Proportion totale de propositions pour les bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>'prop_tot_bp_brs':'Proportion totale de propositions pour les bacheliers professionnels boursiers',</t>
+  </si>
+  <si>
+    <t>'prop_tot_at':'Proportion totale de propositions pour l'apprentissage',</t>
+  </si>
+  <si>
+    <t>'lib_grp1':'Libellé du groupe 1 ',</t>
+  </si>
+  <si>
+    <t>'ran_grp1':'Rang du dernier candidat appelé dans le groupe 1',</t>
+  </si>
+  <si>
+    <t>'lib_grp2':'Libellé du groupe 2',</t>
+  </si>
+  <si>
+    <t>'ran_grp2':'Rang du dernier candidat appelé dans le groupe 2',</t>
+  </si>
+  <si>
+    <t>'lib_grp3':'Libellé du groupe 3',</t>
+  </si>
+  <si>
+    <t>'ran_grp3':'Rang du dernier candidat appelé dans le groupe 3',</t>
+  </si>
+  <si>
+    <t>'lib_grp4':'Libellé du groupe 4',</t>
+  </si>
+  <si>
+    <t>'ran_grp4':'Rang du dernier candidat appelé dans le groupe 4',</t>
+  </si>
+  <si>
+    <t>'lib_grp5':'Libellé du groupe 5',</t>
+  </si>
+  <si>
+    <t>'ran_grp5':'Rang du dernier candidat appelé dans le groupe 5',</t>
+  </si>
+  <si>
+    <t>'taux_adm_psup':'Taux d'admission sur Parcoursup',</t>
+  </si>
+  <si>
+    <t>'taux_adm_psup_pro':'Taux d'admission sur Parcoursup pour les formations professionnelles',</t>
+  </si>
+  <si>
+    <t>'taux_adm_psup_gen':'Taux d'admission sur Parcoursup pour les formations générales',</t>
+  </si>
+  <si>
+    <t>'taux_adm_psup_techno':'Taux d'admission sur Parcoursup pour les formations technologiques',</t>
+  </si>
+  <si>
+    <t>'cod_aff_form':'Code affectation de la formation',</t>
+  </si>
+  <si>
+    <t>'ville_etab':'Commune',</t>
+  </si>
+  <si>
+    <t>'lib_for_voe_ins':'Libellé de la formation pour les vœux d'inscription',</t>
+  </si>
+  <si>
+    <t>'detail_forma2':'Détails supplémentaires sur la formation',</t>
+  </si>
+  <si>
+    <t>'acc_tbf':'Nombre d'acceptations avec mention Très Bien avec Félicitations',</t>
+  </si>
+  <si>
+    <t>'pct_tbf':'Pourcentage d'acceptations avec mention Très Bien avec Félicitations',</t>
+  </si>
+  <si>
+    <t>'list_com':'Liste d'appel',</t>
+  </si>
+  <si>
+    <t>'taux_acces_ens':'Taux d'accès à l'enseignement supérieur',</t>
+  </si>
+  <si>
+    <t>'part_acces_gen':'Part d'accès pour les bacheliers généraux',</t>
+  </si>
+  <si>
+    <t>'part_acces_tec':'Part d'accès pour les bacheliers technologiques',</t>
+  </si>
+  <si>
+    <t>'part_acces_pro':'Part d'accès pour les bacheliers professionnels',</t>
+  </si>
+  <si>
+    <t>Libellé de la formation (tel qu affiché aux candidats)</t>
+  </si>
+  <si>
+    <t>Libellé de la filière (tel qu affiché aux candidats)</t>
+  </si>
+  <si>
+    <t>Capacité d accueil finale de la formation</t>
+  </si>
+  <si>
+    <t>Nombre de vœux confirmés en phase principale pour l internat</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase complémentaire</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale pour l internat</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale sans internat</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale parmi les bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale parmi les bacheliers généraux boursiers</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale parmi les bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale parmi les bacheliers technologiques boursiers</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale parmi les bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale parmi les bacheliers professionnels boursiers</t>
+  </si>
+  <si>
+    <t>Nombre de candidats en liste d appel en phase principale en apprentissage</t>
+  </si>
+  <si>
+    <t>Nombre total de propositions d admission</t>
+  </si>
+  <si>
+    <t>Nombre total d acceptations</t>
+  </si>
+  <si>
+    <t>Nombre total d acceptations par des filles</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations en phase principale</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations en phase complémentaire</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations pour l internat</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par des boursiers</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par des néo-bacheliers</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par des bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par des bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par des bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations en apprentissage</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention non renseignée</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations sans mention</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention Assez Bien</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention Bien</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention Très Bien</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention parmi les bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention parmi les bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention parmi les bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations parmi les terminales</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations parmi les terminales filles</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par académie d origine</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations par académie d origine en Île-de-France</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations par académie d origine</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations par académie d origine en Île-de-France</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations par établissement d origine</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations par des boursiers</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations par des néo-bacheliers</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention non renseignée</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations sans mention</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention Assez Bien</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention Bien</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention Très Bien</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations parmi les bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention parmi les bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations parmi les bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention parmi les bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations parmi les bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention parmi les bacheliers professionnels</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations en début de phase principale</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations à la date du bac</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations en fin de phase principale</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations en début de phase principale</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations à la date du bac</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations en fin de phase principale</t>
+  </si>
+  <si>
+    <t>Proportion totale de propositions pour l apprentissage</t>
+  </si>
+  <si>
+    <t>Taux d admission sur Parcoursup</t>
+  </si>
+  <si>
+    <t>Taux d admission sur Parcoursup pour les formations professionnelles</t>
+  </si>
+  <si>
+    <t>Taux d admission sur Parcoursup pour les formations générales</t>
+  </si>
+  <si>
+    <t>Taux d admission sur Parcoursup pour les formations technologiques</t>
+  </si>
+  <si>
+    <t>Libellé de la formation pour les vœux d inscription</t>
+  </si>
+  <si>
+    <t>Nombre d acceptations avec mention Très Bien avec Félicitations</t>
+  </si>
+  <si>
+    <t>Pourcentage d acceptations avec mention Très Bien avec Félicitations</t>
+  </si>
+  <si>
+    <t>Liste d appel</t>
+  </si>
+  <si>
+    <t>Taux d accès à l enseignement supérieur</t>
+  </si>
+  <si>
+    <t>Part d accès pour les bacheliers généraux</t>
+  </si>
+  <si>
+    <t>Part d accès pour les bacheliers technologiques</t>
+  </si>
+  <si>
+    <t>Part d accès pour les bacheliers professionnels</t>
   </si>
 </sst>
 </file>
@@ -699,7 +1455,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -715,6 +1471,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +1508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -771,8 +1533,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E448FB1B-83FE-4241-9B21-F1114181609F}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1089,7 +1869,7 @@
     <col min="3" max="3" width="42.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
@@ -1099,28 +1879,36 @@
       <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>249</v>
+      </c>
       <c r="E3" t="str">
         <f>"'"&amp;A3&amp;"':"&amp;"'"&amp;B3&amp;"',"</f>
         <v>'etab_uai':'Identifiant Etablissement ',</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,8 +1920,10 @@
         <f t="shared" ref="E4:E22" si="0">"'"&amp;A4&amp;"':"&amp;"'"&amp;B4&amp;"',"</f>
         <v>'etab_nom':'nom de l établissement',</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1935,10 @@
         <f t="shared" si="0"/>
         <v>'tc':'Type d établissement',</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1158,8 +1950,10 @@
         <f t="shared" si="0"/>
         <v>'tf':'Type de formation',</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1171,8 +1965,10 @@
         <f t="shared" si="0"/>
         <v>'nm':'Nom de la formation',</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1184,8 +1980,10 @@
         <f t="shared" si="0"/>
         <v>'fl':'Mentions Spécialités',</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1197,8 +1995,10 @@
         <f t="shared" si="0"/>
         <v>'app':'Apprentissage',</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1210,8 +2010,10 @@
         <f t="shared" si="0"/>
         <v>'int':'Internat',</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1223,15 +2025,19 @@
         <f t="shared" si="0"/>
         <v>'amg':'Aménagement',</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1243,8 +2049,10 @@
         <f t="shared" si="0"/>
         <v>'region':'Région',</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1256,8 +2064,10 @@
         <f t="shared" si="0"/>
         <v>'departement':'Département',</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1269,8 +2079,10 @@
         <f t="shared" si="0"/>
         <v>'commune':'Commune',</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1282,8 +2094,10 @@
         <f t="shared" si="0"/>
         <v>'fiche':'Lien vers la fiche formation',</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +2109,10 @@
         <f t="shared" si="0"/>
         <v>'dataviz':'Lien vers les données statistiques',</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1308,15 +2124,19 @@
         <f t="shared" si="0"/>
         <v>'etab_url':'Site internet de l étabilissement',</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1328,8 +2148,10 @@
         <f t="shared" si="0"/>
         <v>'nmc':'Nom court de la formation',</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="114" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1343,8 +2165,10 @@
         <f t="shared" si="0"/>
         <v>'gta':'GTA   Gestion des Désistements en Phase d’Admission',</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1358,8 +2182,10 @@
         <f t="shared" si="0"/>
         <v>'gti':'GTI   Groupe de Traitement des Inscriptions',</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1367,8 +2193,10 @@
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1376,8 +2204,10 @@
       <c r="C24" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,16 +2218,26 @@
         <v>40</v>
       </c>
       <c r="E25" t="str">
-        <f>"'"&amp;A25&amp;"':"&amp;"'"&amp;B25&amp;"'"</f>
-        <v>'rnd':'Rang du dernier candidat appelé'</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" ref="E25:E26" si="1">"'"&amp;A25&amp;"':"&amp;"'"&amp;B25&amp;"',"</f>
+        <v>'rnd':'Rang du dernier candidat appelé',</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="C26" s="3"/>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>'code_formation':'Code unique de la formation',</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C26" xr:uid="{E448FB1B-83FE-4241-9B21-F1114181609F}"/>
@@ -1408,1279 +2248,2787 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E927B7-B969-4A6A-BE8A-48EAA86AC440}">
-  <dimension ref="A1:D129"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.46484375" customWidth="1"/>
-    <col min="4" max="4" width="25.265625" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.796875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="9"/>
+      <c r="F2" t="str">
+        <f>"'"&amp;A2&amp;"':"&amp;"'"&amp;C2&amp;"',"</f>
+        <v>'session':'annee',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="9"/>
+      <c r="F3" t="str">
+        <f>"'"&amp;A3&amp;"':"&amp;"'"&amp;C3&amp;"',"</f>
+        <v>'cod_uai':'Identifiant Etablissement ',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="16" t="s">
         <v>180</v>
       </c>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F13" si="0">"'"&amp;A8&amp;"':"&amp;"'"&amp;C8&amp;"',"</f>
+        <v>'acad_mies':'Académie',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="9"/>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>'fili':'Filière de formation',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="14" t="s">
+        <v>377</v>
+      </c>
       <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="9"/>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>'form_lib_voe_acc':'Libellé de la formation (tel qu affiché aux candidats)',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="9"/>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>'regr_forma':'Régime de la formation',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="9"/>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>'fil_lib_voe_acc':'Libellé de la filière (tel qu affiché aux candidats)',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="9"/>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>'detail_forma':'Détails sur la formation',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>209</v>
+      </c>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="9">
         <v>140</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="14" t="s">
+        <v>379</v>
+      </c>
       <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="9"/>
+      <c r="F16" t="str">
+        <f t="shared" ref="F16:F79" si="1">"'"&amp;A16&amp;"':"&amp;"'"&amp;C16&amp;"',"</f>
+        <v>'capa_fin':'Capacité d accueil finale de la formation',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="9">
         <v>9893</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="14" t="s">
+        <v>211</v>
+      </c>
       <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="9"/>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>'voe_tot':'Nombre total de vœux confirmés',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="9">
         <v>6969</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="9"/>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>'voe_tot_f':'Nombre total de vœux confirmés par des filles',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="9">
         <v>9893</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="9"/>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp':'Nombre de vœux confirmés en phase principale',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="14" t="s">
+        <v>380</v>
+      </c>
       <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="9"/>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_internat':'Nombre de vœux confirmés en phase principale pour l internat',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B21" s="9">
         <v>7407</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="9"/>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_bg':'Nombre de vœux confirmés en phase principale par des bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="9">
         <v>1323</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" s="9"/>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_bg_brs':'Nombre de vœux confirmés en phase principale par des bacheliers généraux boursiers',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="9">
         <v>217</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="14" t="s">
+        <v>216</v>
+      </c>
       <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" s="9"/>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_bt':'Nombre de vœux confirmés en phase principale par des bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="9">
         <v>75</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" s="9"/>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_bt_brs':'Nombre de vœux confirmés en phase principale par des bacheliers technologiques boursiers',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="9">
         <v>100</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="14" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" s="9"/>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_bp':'Nombre de vœux confirmés en phase principale par des bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A26" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B26" s="9">
         <v>34</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="14" t="s">
+        <v>219</v>
+      </c>
       <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E26" s="9"/>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_bp_brs':'Nombre de vœux confirmés en phase principale par des bacheliers professionnels boursiers',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="9">
         <v>2169</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="9"/>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pp_at':'Nombre de vœux confirmés en phase principale en apprentissage',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B28" s="9">
         <v>0</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="14" t="s">
+        <v>221</v>
+      </c>
       <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" s="9"/>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pc':'Nombre de vœux confirmés en phase complémentaire',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A29" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="9">
         <v>0</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="14" t="s">
+        <v>222</v>
+      </c>
       <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" s="9"/>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pc_bg':'Nombre de vœux confirmés en phase complémentaire par des bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="9">
         <v>0</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" s="9"/>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pc_bt':'Nombre de vœux confirmés en phase complémentaire par des bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B31" s="9">
         <v>0</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="14" t="s">
+        <v>224</v>
+      </c>
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" s="9"/>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pc_bp':'Nombre de vœux confirmés en phase complémentaire par des bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="9">
         <v>0</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="14" t="s">
+        <v>225</v>
+      </c>
       <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" s="9"/>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_voe_pc_at':'Nombre de vœux confirmés en phase complémentaire en apprentissage',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="9">
         <v>9849</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="14" t="s">
+        <v>381</v>
+      </c>
       <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E33" s="9"/>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp':'Nombre de candidats en liste d appel en phase principale',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B34" s="9">
         <v>0</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="14" t="s">
+        <v>382</v>
+      </c>
       <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" s="9"/>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pc':'Nombre de candidats en liste d appel en phase complémentaire',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="14" t="s">
+        <v>383</v>
+      </c>
       <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E35" s="9"/>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_internat':'Nombre de candidats en liste d appel en phase principale pour l internat',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
+      <c r="C36" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" s="9"/>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_pasinternat':'Nombre de candidats en liste d appel en phase principale sans internat',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B37" s="9">
         <v>7407</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="14" t="s">
+        <v>385</v>
+      </c>
       <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E37" s="9"/>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_bg':'Nombre de candidats en liste d appel en phase principale parmi les bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B38" s="9">
         <v>1323</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="14" t="s">
+        <v>386</v>
+      </c>
       <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38" s="9"/>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_bg_brs':'Nombre de candidats en liste d appel en phase principale parmi les bacheliers généraux boursiers',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B39" s="9">
         <v>217</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="14" t="s">
+        <v>387</v>
+      </c>
       <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E39" s="9"/>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_bt':'Nombre de candidats en liste d appel en phase principale parmi les bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A40" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B40" s="9">
         <v>75</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="14" t="s">
+        <v>388</v>
+      </c>
       <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E40" s="9"/>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_bt_brs':'Nombre de candidats en liste d appel en phase principale parmi les bacheliers technologiques boursiers',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A41" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B41" s="9">
         <v>100</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="14" t="s">
+        <v>389</v>
+      </c>
       <c r="D41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41" s="9"/>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_bp':'Nombre de candidats en liste d appel en phase principale parmi les bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="9">
         <v>34</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="14" t="s">
+        <v>390</v>
+      </c>
       <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42" s="9"/>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_bp_brs':'Nombre de candidats en liste d appel en phase principale parmi les bacheliers professionnels boursiers',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B43" s="9">
         <v>2125</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="14" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43" s="9"/>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>'nb_cla_pp_at':'Nombre de candidats en liste d appel en phase principale en apprentissage',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="9">
         <v>1400</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="14" t="s">
+        <v>392</v>
+      </c>
       <c r="D44" s="9"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44" s="9"/>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>'prop_tot':'Nombre total de propositions d admission',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="D45" s="9"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E45" s="9"/>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>'rang_der_max':'Rang du dernier candidat appelé',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B46" s="9">
         <v>137</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="14" t="s">
+        <v>393</v>
+      </c>
       <c r="D46" s="9"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46" s="9"/>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_tot':'Nombre total d acceptations',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="9">
         <v>104</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="14" t="s">
+        <v>394</v>
+      </c>
       <c r="D47" s="9"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47" s="9"/>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_tot_f':'Nombre total d acceptations par des filles',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="9">
         <v>137</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="14" t="s">
+        <v>395</v>
+      </c>
       <c r="D48" s="9"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="9"/>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_pp':'Nombre d acceptations en phase principale',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B49" s="9">
         <v>0</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D49" s="9"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" s="9"/>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_pc':'Nombre d acceptations en phase complémentaire',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="14" t="s">
+        <v>397</v>
+      </c>
       <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="9"/>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_internat':'Nombre d acceptations pour l internat',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B51" s="9">
         <v>24</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="14" t="s">
+        <v>398</v>
+      </c>
       <c r="D51" s="9"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E51" s="9"/>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_brs':'Nombre d acceptations par des boursiers',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B52" s="9">
         <v>121</v>
       </c>
-      <c r="C52" s="9"/>
+      <c r="C52" s="14" t="s">
+        <v>399</v>
+      </c>
       <c r="D52" s="9"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52" s="9"/>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_neobac':'Nombre d acceptations par des néo-bacheliers',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B53" s="9">
         <v>115</v>
       </c>
-      <c r="C53" s="9"/>
+      <c r="C53" s="14" t="s">
+        <v>400</v>
+      </c>
       <c r="D53" s="9"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53" s="9"/>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_bg':'Nombre d acceptations par des bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B54" s="9">
         <v>6</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="14" t="s">
+        <v>401</v>
+      </c>
       <c r="D54" s="9"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54" s="9"/>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_bt':'Nombre d acceptations par des bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B55" s="9">
         <v>0</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="14" t="s">
+        <v>402</v>
+      </c>
       <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55" s="9"/>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_bp':'Nombre d acceptations par des bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="9" t="s">
         <v>106</v>
       </c>
       <c r="B56" s="9">
         <v>16</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="14" t="s">
+        <v>403</v>
+      </c>
       <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56" s="9"/>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_at':'Nombre d acceptations en apprentissage',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B57" s="9">
         <v>0</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="14" t="s">
+        <v>404</v>
+      </c>
       <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E57" s="9"/>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_mention_nonrenseignee':'Nombre d acceptations avec mention non renseignée',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B58" s="9">
         <v>7</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="14" t="s">
+        <v>405</v>
+      </c>
       <c r="D58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E58" s="9"/>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_sansmention':'Nombre d acceptations sans mention',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B59" s="9">
         <v>28</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="D59" s="9"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E59" s="9"/>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_ab':'Nombre d acceptations avec mention Assez Bien',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B60" s="9">
         <v>56</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="14" t="s">
+        <v>407</v>
+      </c>
       <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E60" s="9"/>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_b':'Nombre d acceptations avec mention Bien',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B61" s="9">
         <v>28</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="14" t="s">
+        <v>408</v>
+      </c>
       <c r="D61" s="9"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61" s="9"/>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_tb':'Nombre d acceptations avec mention Très Bien',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="9" t="s">
         <v>112</v>
       </c>
       <c r="B62" s="9">
         <v>108</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="14" t="s">
+        <v>409</v>
+      </c>
       <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E62" s="9"/>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_bg_mention':'Nombre d acceptations avec mention parmi les bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="9" t="s">
         <v>113</v>
       </c>
       <c r="B63" s="9">
         <v>6</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="14" t="s">
+        <v>410</v>
+      </c>
       <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63" s="9"/>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_bt_mention':'Nombre d acceptations avec mention parmi les bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="9" t="s">
         <v>114</v>
       </c>
       <c r="B64" s="9">
         <v>0</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="14" t="s">
+        <v>411</v>
+      </c>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E64" s="9"/>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_bp_mention':'Nombre d acceptations avec mention parmi les bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A65" s="9" t="s">
         <v>115</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="C65" s="14" t="s">
+        <v>412</v>
+      </c>
       <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65" s="9"/>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_term':'Nombre d acceptations parmi les terminales',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="9" t="s">
         <v>116</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
+      <c r="C66" s="14" t="s">
+        <v>413</v>
+      </c>
       <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66" s="9"/>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_term_f':'Nombre d acceptations parmi les terminales filles',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B67" s="9">
         <v>40</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="14" t="s">
+        <v>414</v>
+      </c>
       <c r="D67" s="9"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67" s="9"/>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_aca_orig':'Nombre d acceptations par académie d origine',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A68" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B68" s="9">
         <v>104</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="14" t="s">
+        <v>415</v>
+      </c>
       <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68" s="9"/>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>'acc_aca_orig_idf':'Nombre d acceptations par académie d origine en Île-de-France',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B69" s="9">
         <v>76</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69" s="9"/>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_f':'Pourcentage de filles parmi les acceptations',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B70" s="9">
         <v>33</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="14" t="s">
+        <v>416</v>
+      </c>
       <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70" s="9"/>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_aca_orig':'Pourcentage d acceptations par académie d origine',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A71" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B71" s="9">
         <v>86</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="14" t="s">
+        <v>417</v>
+      </c>
       <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" s="9"/>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_aca_orig_idf':'Pourcentage d acceptations par académie d origine en Île-de-France',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="9" t="s">
         <v>122</v>
       </c>
       <c r="B72" s="9">
         <v>0</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="14" t="s">
+        <v>418</v>
+      </c>
       <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" s="9"/>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_etab_orig':'Pourcentage d acceptations par établissement d origine',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B73" s="9">
         <v>20</v>
       </c>
-      <c r="C73" s="9"/>
+      <c r="C73" s="14" t="s">
+        <v>419</v>
+      </c>
       <c r="D73" s="9"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E73" s="9"/>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_bours':'Pourcentage d acceptations par des boursiers',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="9" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="9">
         <v>88</v>
       </c>
-      <c r="C74" s="9"/>
+      <c r="C74" s="14" t="s">
+        <v>420</v>
+      </c>
       <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E74" s="9"/>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_neobac':'Pourcentage d acceptations par des néo-bacheliers',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="9" t="s">
         <v>125</v>
       </c>
       <c r="B75" s="9">
         <v>0</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="14" t="s">
+        <v>421</v>
+      </c>
       <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" s="9"/>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_mention_nonrenseignee':'Pourcentage d acceptations avec mention non renseignée',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B76" s="9">
         <v>6</v>
       </c>
-      <c r="C76" s="9"/>
+      <c r="C76" s="14" t="s">
+        <v>422</v>
+      </c>
       <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76" s="9"/>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_sansmention':'Pourcentage d acceptations sans mention',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="9" t="s">
         <v>127</v>
       </c>
       <c r="B77" s="9">
         <v>23</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="14" t="s">
+        <v>423</v>
+      </c>
       <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77" s="9"/>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_ab':'Pourcentage d acceptations avec mention Assez Bien',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B78" s="9">
         <v>46</v>
       </c>
-      <c r="C78" s="9"/>
+      <c r="C78" s="14" t="s">
+        <v>424</v>
+      </c>
       <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E78" s="9"/>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_b':'Pourcentage d acceptations avec mention Bien',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B79" s="9">
         <v>23</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="14" t="s">
+        <v>425</v>
+      </c>
       <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E79" s="9"/>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>'pct_tb':'Pourcentage d acceptations avec mention Très Bien',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="9" t="s">
         <v>130</v>
       </c>
       <c r="B80" s="9">
         <v>95</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="D80" s="9"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E80" s="9"/>
+      <c r="F80" t="str">
+        <f t="shared" ref="F80:F123" si="2">"'"&amp;A80&amp;"':"&amp;"'"&amp;C80&amp;"',"</f>
+        <v>'pct_bg':'Pourcentage d acceptations parmi les bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A81" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B81" s="9">
         <v>89</v>
       </c>
-      <c r="C81" s="9"/>
+      <c r="C81" s="14" t="s">
+        <v>427</v>
+      </c>
       <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E81" s="9"/>
+      <c r="F81" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_bg_mention':'Pourcentage d acceptations avec mention parmi les bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B82" s="9">
         <v>5</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="14" t="s">
+        <v>428</v>
+      </c>
       <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E82" s="9"/>
+      <c r="F82" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_bt':'Pourcentage d acceptations parmi les bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A83" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B83" s="9">
         <v>5</v>
       </c>
-      <c r="C83" s="9"/>
+      <c r="C83" s="14" t="s">
+        <v>429</v>
+      </c>
       <c r="D83" s="9"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E83" s="9"/>
+      <c r="F83" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_bt_mention':'Pourcentage d acceptations avec mention parmi les bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A84" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B84" s="9">
         <v>0</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="14" t="s">
+        <v>430</v>
+      </c>
       <c r="D84" s="9"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E84" s="9"/>
+      <c r="F84" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_bp':'Pourcentage d acceptations parmi les bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A85" s="9" t="s">
         <v>135</v>
       </c>
       <c r="B85" s="9">
         <v>0</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="14" t="s">
+        <v>431</v>
+      </c>
       <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85" s="9"/>
+      <c r="F85" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_bp_mention':'Pourcentage d acceptations avec mention parmi les bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="14" t="s">
+        <v>227</v>
+      </c>
       <c r="D86" s="9"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E86" s="9"/>
+      <c r="F86" t="str">
+        <f t="shared" si="2"/>
+        <v>'tri':'Tri des données',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" s="9" t="s">
         <v>137</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="D87" s="9"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E87" s="9"/>
+      <c r="F87" t="str">
+        <f t="shared" si="2"/>
+        <v>'contrat_etab':'Type d établissement',</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A88" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B88" s="9">
         <v>1</v>
       </c>
-      <c r="C88" s="9"/>
+      <c r="C88" s="14" t="s">
+        <v>432</v>
+      </c>
       <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E88" s="9"/>
+      <c r="F88" t="str">
+        <f t="shared" si="2"/>
+        <v>'acc_debutpp':'Nombre d acceptations en début de phase principale',</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A89" s="9" t="s">
         <v>139</v>
       </c>
       <c r="B89" s="9">
         <v>38</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="D89" s="9"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E89" s="9"/>
+      <c r="F89" t="str">
+        <f t="shared" si="2"/>
+        <v>'acc_datebac':'Nombre d acceptations à la date du bac',</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B90" s="9">
         <v>116</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="D90" s="9"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E90" s="9"/>
+      <c r="F90" t="str">
+        <f t="shared" si="2"/>
+        <v>'acc_finpp':'Nombre d acceptations en fin de phase principale',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="9" t="s">
         <v>141</v>
       </c>
       <c r="B91" s="9">
         <v>1</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="D91" s="9"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E91" s="9"/>
+      <c r="F91" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_acc_debutpp':'Pourcentage d acceptations en début de phase principale',</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B92" s="9">
         <v>28</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="14" t="s">
+        <v>436</v>
+      </c>
       <c r="D92" s="9"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E92" s="9"/>
+      <c r="F92" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_acc_datebac':'Pourcentage d acceptations à la date du bac',</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A93" s="9" t="s">
         <v>143</v>
       </c>
       <c r="B93" s="9">
         <v>85</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="14" t="s">
+        <v>437</v>
+      </c>
       <c r="D93" s="9"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E93" s="9"/>
+      <c r="F93" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_acc_finpp':'Pourcentage d acceptations en fin de phase principale',</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="9"/>
+      <c r="C94" s="14" t="s">
+        <v>228</v>
+      </c>
       <c r="D94" s="9"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94" s="9"/>
+      <c r="F94" t="str">
+        <f t="shared" si="2"/>
+        <v>'select_form':'Sélectivité de la formation',</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="D95" s="9"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E95" s="9"/>
+      <c r="F95" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_comp_voe_ins':'Filière de formation détaillée',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A96" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B96" s="9">
         <v>1242</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="14" t="s">
+        <v>229</v>
+      </c>
       <c r="D96" s="9"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E96" s="9"/>
+      <c r="F96" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_bg':'Proportion totale de propositions pour les bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="9" t="s">
         <v>147</v>
       </c>
       <c r="B97" s="9">
         <v>213</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="14" t="s">
+        <v>230</v>
+      </c>
       <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97" s="9"/>
+      <c r="F97" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_bg_brs':'Proportion totale de propositions pour les bacheliers généraux boursiers',</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B98" s="9">
         <v>20</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="14" t="s">
+        <v>231</v>
+      </c>
       <c r="D98" s="9"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E98" s="9"/>
+      <c r="F98" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_bt':'Proportion totale de propositions pour les bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B99" s="9">
         <v>11</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="14" t="s">
+        <v>232</v>
+      </c>
       <c r="D99" s="9"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E99" s="9"/>
+      <c r="F99" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_bt_brs':'Proportion totale de propositions pour les bacheliers technologiques boursiers',</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B100" s="9">
         <v>0</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="14" t="s">
+        <v>233</v>
+      </c>
       <c r="D100" s="9"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E100" s="9"/>
+      <c r="F100" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_bp':'Proportion totale de propositions pour les bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A101" s="9" t="s">
         <v>151</v>
       </c>
       <c r="B101" s="9">
         <v>0</v>
       </c>
-      <c r="C101" s="9"/>
+      <c r="C101" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="D101" s="9"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101" s="9"/>
+      <c r="F101" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_bp_brs':'Proportion totale de propositions pour les bacheliers professionnels boursiers',</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="9" t="s">
         <v>152</v>
       </c>
       <c r="B102" s="9">
         <v>138</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="14" t="s">
+        <v>438</v>
+      </c>
       <c r="D102" s="9"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102" s="9"/>
+      <c r="F102" t="str">
+        <f t="shared" si="2"/>
+        <v>'prop_tot_at':'Proportion totale de propositions pour l apprentissage',</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C103" s="9"/>
+      <c r="C103" s="14" t="s">
+        <v>250</v>
+      </c>
       <c r="D103" s="9"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E103" s="9"/>
+      <c r="F103" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_grp1':'Libellé du groupe 1 ',</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="9"/>
+      <c r="C104" s="14" t="s">
+        <v>235</v>
+      </c>
       <c r="D104" s="9"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E104" s="9"/>
+      <c r="F104" t="str">
+        <f t="shared" si="2"/>
+        <v>'ran_grp1':'Rang du dernier candidat appelé dans le groupe 1',</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" s="9" t="s">
         <v>155</v>
       </c>
       <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
+      <c r="C105" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="D105" s="9"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E105" s="9"/>
+      <c r="F105" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_grp2':'Libellé du groupe 2',</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A106" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
+      <c r="C106" s="14" t="s">
+        <v>237</v>
+      </c>
       <c r="D106" s="9"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E106" s="9"/>
+      <c r="F106" t="str">
+        <f t="shared" si="2"/>
+        <v>'ran_grp2':'Rang du dernier candidat appelé dans le groupe 2',</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="9" t="s">
         <v>157</v>
       </c>
       <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="C107" s="14" t="s">
+        <v>238</v>
+      </c>
       <c r="D107" s="9"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107" s="9"/>
+      <c r="F107" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_grp3':'Libellé du groupe 3',</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A108" s="9" t="s">
         <v>158</v>
       </c>
       <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+      <c r="C108" s="14" t="s">
+        <v>239</v>
+      </c>
       <c r="D108" s="9"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E108" s="9"/>
+      <c r="F108" t="str">
+        <f t="shared" si="2"/>
+        <v>'ran_grp3':'Rang du dernier candidat appelé dans le groupe 3',</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" s="9" t="s">
         <v>159</v>
       </c>
       <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
+      <c r="C109" s="14" t="s">
+        <v>240</v>
+      </c>
       <c r="D109" s="9"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E109" s="9"/>
+      <c r="F109" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_grp4':'Libellé du groupe 4',</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A110" s="9" t="s">
         <v>160</v>
       </c>
       <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="14" t="s">
+        <v>241</v>
+      </c>
       <c r="D110" s="9"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E110" s="9"/>
+      <c r="F110" t="str">
+        <f t="shared" si="2"/>
+        <v>'ran_grp4':'Rang du dernier candidat appelé dans le groupe 4',</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" s="9" t="s">
         <v>161</v>
       </c>
       <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
+      <c r="C111" s="14" t="s">
+        <v>242</v>
+      </c>
       <c r="D111" s="9"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E111" s="9"/>
+      <c r="F111" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_grp5':'Libellé du groupe 5',</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
+      <c r="C112" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="D112" s="9"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E112" s="9"/>
+      <c r="F112" t="str">
+        <f t="shared" si="2"/>
+        <v>'ran_grp5':'Rang du dernier candidat appelé dans le groupe 5',</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
+      <c r="C113" s="14" t="s">
+        <v>439</v>
+      </c>
       <c r="D113" s="9"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E113" s="9"/>
+      <c r="F113" t="str">
+        <f t="shared" si="2"/>
+        <v>'taux_adm_psup':'Taux d admission sur Parcoursup',</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A114" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
+      <c r="C114" s="14" t="s">
+        <v>440</v>
+      </c>
       <c r="D114" s="9"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E114" s="9"/>
+      <c r="F114" t="str">
+        <f t="shared" si="2"/>
+        <v>'taux_adm_psup_pro':'Taux d admission sur Parcoursup pour les formations professionnelles',</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A115" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
+      <c r="C115" s="14" t="s">
+        <v>441</v>
+      </c>
       <c r="D115" s="9"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E115" s="9"/>
+      <c r="F115" t="str">
+        <f t="shared" si="2"/>
+        <v>'taux_adm_psup_gen':'Taux d admission sur Parcoursup pour les formations générales',</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A116" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
+      <c r="C116" s="14" t="s">
+        <v>442</v>
+      </c>
       <c r="D116" s="9"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E116" s="9"/>
+      <c r="F116" t="str">
+        <f t="shared" si="2"/>
+        <v>'taux_adm_psup_techno':'Taux d admission sur Parcoursup pour les formations technologiques',</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C117" s="9"/>
+      <c r="C117" s="14" t="s">
+        <v>244</v>
+      </c>
       <c r="D117" s="9"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E117" s="9"/>
+      <c r="F117" t="str">
+        <f t="shared" si="2"/>
+        <v>'cod_aff_form':'Code affectation de la formation',</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C118" s="9"/>
+      <c r="C118" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="D118" s="9"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E118" s="9"/>
+      <c r="F118" t="str">
+        <f t="shared" si="2"/>
+        <v>'ville_etab':'Commune',</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="14" t="s">
+        <v>443</v>
+      </c>
       <c r="D119" s="9"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E119" s="9"/>
+      <c r="F119" t="str">
+        <f t="shared" si="2"/>
+        <v>'lib_for_voe_ins':'Libellé de la formation pour les vœux d inscription',</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A120" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
+      <c r="C120" s="14" t="s">
+        <v>245</v>
+      </c>
       <c r="D120" s="9"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E120" s="9"/>
+      <c r="F120" t="str">
+        <f t="shared" si="2"/>
+        <v>'detail_forma2':'Détails supplémentaires sur la formation',</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A121" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B121" s="9">
         <v>2</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="14" t="s">
+        <v>444</v>
+      </c>
       <c r="D121" s="9"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E121" s="9"/>
+      <c r="F121" t="str">
+        <f t="shared" si="2"/>
+        <v>'acc_tbf':'Nombre d acceptations avec mention Très Bien avec Félicitations',</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="9" t="s">
         <v>172</v>
       </c>
       <c r="B122" s="9">
         <v>2</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="14" t="s">
+        <v>445</v>
+      </c>
       <c r="D122" s="9"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E122" s="9"/>
+      <c r="F122" t="str">
+        <f t="shared" si="2"/>
+        <v>'pct_tbf':'Pourcentage d acceptations avec mention Très Bien avec Félicitations',</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="65.349999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="9" t="s">
         <v>173</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C123" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" t="str">
+        <f t="shared" si="2"/>
+        <v>'list_com':'Liste d appel',</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C124" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="42.75" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C125" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A126" s="9" t="s">
         <v>174</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="14" t="s">
+        <v>447</v>
+      </c>
       <c r="D126" s="9"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E126" s="9"/>
+      <c r="F126" t="str">
+        <f t="shared" ref="F126:F129" si="3">"'"&amp;A126&amp;"':"&amp;"'"&amp;C126&amp;"',"</f>
+        <v>'taux_acces_ens':'Taux d accès à l enseignement supérieur',</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A127" s="9" t="s">
         <v>175</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="14" t="s">
+        <v>448</v>
+      </c>
       <c r="D127" s="9"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E127" s="9"/>
+      <c r="F127" t="str">
+        <f t="shared" si="3"/>
+        <v>'part_acces_gen':'Part d accès pour les bacheliers généraux',</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A128" s="9" t="s">
         <v>176</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="D128" s="9"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E128" s="9"/>
+      <c r="F128" t="str">
+        <f t="shared" si="3"/>
+        <v>'part_acces_tec':'Part d accès pour les bacheliers technologiques',</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A129" s="9" t="s">
         <v>177</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="14" t="s">
+        <v>450</v>
+      </c>
       <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" t="str">
+        <f t="shared" si="3"/>
+        <v>'part_acces_pro':'Part d accès pour les bacheliers professionnels',</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="C130" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E129" xr:uid="{B5E927B7-B969-4A6A-BE8A-48EAA86AC440}">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="A rapatrier dans table dimension etablissements"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8997E73-6C8B-4D46-9E41-2699E709D86B}">
+  <dimension ref="A1:A120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection sqref="A1:A120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>376</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>